--- a/0_appendix/labeling/individual_food_tube_IDs.xlsx
+++ b/0_appendix/labeling/individual_food_tube_IDs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="440">
   <si>
     <t xml:space="preserve">F-T1-G1-I1-CA</t>
   </si>
@@ -1212,6 +1212,126 @@
   </si>
   <si>
     <t xml:space="preserve">F-T5-G100-I400-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T1-G101-I401-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T1-G101-I402-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T1-G101-I403-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T1-G101-I404-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T1-G102-I405-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T1-G102-I406-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T1-G102-I407-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T1-G102-I408-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T2-G103-I409-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T2-G103-I410-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T2-G103-I411-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T2-G103-I412-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T2-G104-I413-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T2-G104-I414-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T2-G104-I415-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T2-G104-I416-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T3-G105-I417-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T3-G105-I418-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T3-G105-I419-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T3-G105-I420-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T3-G106-I421-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T3-G106-I422-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T3-G106-I423-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T3-G106-I424-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T4-G107-I425-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T4-G107-I426-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T4-G107-I427-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T4-G107-I428-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T4-G108-I429-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T4-G108-I430-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T4-G108-I431-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T4-G108-I432-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T5-G109-I433-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T5-G109-I434-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T5-G109-I435-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T5-G109-I436-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T5-G110-I437-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T5-G110-I438-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T5-G110-I439-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-T5-G110-I440-EP</t>
   </si>
 </sst>
 </file>
@@ -3543,6 +3663,206 @@
         <v>399</v>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
